--- a/REGULAR/OJT/BOÑON, ARMANDO.xlsx
+++ b/REGULAR/OJT/BOÑON, ARMANDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7750D9B0-5955-4B6F-8563-B2D934E4BE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1187,7 +1188,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1231,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1295,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1355,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1421,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1484,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1582,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1641,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1706,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1749,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1824,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2010,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2076,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2134,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2200,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2256,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2331,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2374,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2440,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2496,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2594,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2657,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2706,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2722,26 +2723,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K549" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K549"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K549" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K549" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2753,13 +2754,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2768,14 +2769,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3079,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3089,7 +3090,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3097,34 +3098,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A323" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B336" sqref="B336"/>
+      <pane ySplit="3984" topLeftCell="A326"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="A339" sqref="A339:A351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3145,7 +3146,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3168,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3189,7 +3190,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3197,7 +3198,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3210,7 +3211,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3227,7 +3228,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3286,7 +3287,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3308,7 +3309,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>35697</v>
       </c>
@@ -3328,7 +3329,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35704</v>
       </c>
@@ -3348,7 +3349,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35735</v>
       </c>
@@ -3368,7 +3369,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35765</v>
       </c>
@@ -3388,7 +3389,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
@@ -3406,7 +3407,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>42</v>
       </c>
@@ -3430,7 +3431,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -3448,7 +3449,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36161</v>
       </c>
@@ -3468,7 +3469,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36192</v>
       </c>
@@ -3488,7 +3489,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36220</v>
       </c>
@@ -3508,7 +3509,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36251</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36281</v>
       </c>
@@ -3554,7 +3555,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36312</v>
       </c>
@@ -3574,7 +3575,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36342</v>
       </c>
@@ -3594,7 +3595,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36373</v>
       </c>
@@ -3614,7 +3615,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36404</v>
       </c>
@@ -3634,7 +3635,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36434</v>
       </c>
@@ -3654,7 +3655,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36465</v>
       </c>
@@ -3674,7 +3675,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36495</v>
       </c>
@@ -3698,7 +3699,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>88</v>
       </c>
@@ -3720,7 +3721,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36526</v>
       </c>
@@ -3740,7 +3741,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36557</v>
       </c>
@@ -3760,7 +3761,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36586</v>
       </c>
@@ -3780,7 +3781,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36617</v>
       </c>
@@ -3800,7 +3801,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36647</v>
       </c>
@@ -3820,7 +3821,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36678</v>
       </c>
@@ -3840,7 +3841,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -3860,7 +3861,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -3880,7 +3881,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -3900,7 +3901,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -3940,7 +3941,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36861</v>
       </c>
@@ -3964,7 +3965,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>87</v>
       </c>
@@ -3986,7 +3987,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36892</v>
       </c>
@@ -4006,7 +4007,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36923</v>
       </c>
@@ -4026,7 +4027,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36951</v>
       </c>
@@ -4046,7 +4047,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36982</v>
       </c>
@@ -4066,7 +4067,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>37012</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37043</v>
       </c>
@@ -4112,7 +4113,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>37073</v>
       </c>
@@ -4132,7 +4133,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -4152,7 +4153,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37135</v>
       </c>
@@ -4172,7 +4173,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37165</v>
       </c>
@@ -4192,7 +4193,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37196</v>
       </c>
@@ -4212,7 +4213,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37226</v>
       </c>
@@ -4232,7 +4233,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>82</v>
       </c>
@@ -4254,7 +4255,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37257</v>
       </c>
@@ -4274,7 +4275,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>37288</v>
       </c>
@@ -4294,7 +4295,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37316</v>
       </c>
@@ -4314,7 +4315,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37347</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37377</v>
       </c>
@@ -4360,7 +4361,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37408</v>
       </c>
@@ -4380,7 +4381,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37438</v>
       </c>
@@ -4400,7 +4401,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37469</v>
       </c>
@@ -4420,7 +4421,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37500</v>
       </c>
@@ -4440,7 +4441,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37530</v>
       </c>
@@ -4460,7 +4461,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37561</v>
       </c>
@@ -4480,7 +4481,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37591</v>
       </c>
@@ -4504,7 +4505,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>79</v>
       </c>
@@ -4526,7 +4527,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37622</v>
       </c>
@@ -4546,7 +4547,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37653</v>
       </c>
@@ -4566,7 +4567,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37681</v>
       </c>
@@ -4586,7 +4587,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37712</v>
       </c>
@@ -4606,7 +4607,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37742</v>
       </c>
@@ -4626,7 +4627,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37773</v>
       </c>
@@ -4646,7 +4647,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37803</v>
       </c>
@@ -4666,7 +4667,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37834</v>
       </c>
@@ -4686,7 +4687,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37865</v>
       </c>
@@ -4706,7 +4707,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37895</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37926</v>
       </c>
@@ -4752,7 +4753,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37956</v>
       </c>
@@ -4776,7 +4777,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>78</v>
       </c>
@@ -4798,7 +4799,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37987</v>
       </c>
@@ -4818,7 +4819,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>38018</v>
       </c>
@@ -4838,7 +4839,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38047</v>
       </c>
@@ -4858,7 +4859,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38078</v>
       </c>
@@ -4878,7 +4879,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>38108</v>
       </c>
@@ -4898,7 +4899,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38139</v>
       </c>
@@ -4918,7 +4919,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>38169</v>
       </c>
@@ -4938,7 +4939,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>38200</v>
       </c>
@@ -4958,7 +4959,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38231</v>
       </c>
@@ -4978,7 +4979,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>38261</v>
       </c>
@@ -4998,7 +4999,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>38292</v>
       </c>
@@ -5018,7 +5019,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>38322</v>
       </c>
@@ -5042,7 +5043,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
         <v>77</v>
       </c>
@@ -5064,7 +5065,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38353</v>
       </c>
@@ -5084,7 +5085,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>38384</v>
       </c>
@@ -5104,7 +5105,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38412</v>
       </c>
@@ -5124,7 +5125,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38443</v>
       </c>
@@ -5144,7 +5145,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>38473</v>
       </c>
@@ -5164,7 +5165,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -5184,7 +5185,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -5204,7 +5205,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -5224,7 +5225,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -5244,7 +5245,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -5264,7 +5265,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -5284,7 +5285,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>38687</v>
       </c>
@@ -5308,7 +5309,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>76</v>
       </c>
@@ -5330,7 +5331,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>38718</v>
       </c>
@@ -5350,7 +5351,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>38749</v>
       </c>
@@ -5370,7 +5371,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>38777</v>
       </c>
@@ -5390,7 +5391,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38808</v>
       </c>
@@ -5410,7 +5411,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38838</v>
       </c>
@@ -5430,7 +5431,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>38869</v>
       </c>
@@ -5450,7 +5451,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38899</v>
       </c>
@@ -5470,7 +5471,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38930</v>
       </c>
@@ -5490,7 +5491,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38961</v>
       </c>
@@ -5510,7 +5511,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38991</v>
       </c>
@@ -5530,7 +5531,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>39022</v>
       </c>
@@ -5550,7 +5551,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>39052</v>
       </c>
@@ -5574,7 +5575,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>75</v>
       </c>
@@ -5596,7 +5597,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>39083</v>
       </c>
@@ -5616,7 +5617,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>39114</v>
       </c>
@@ -5636,7 +5637,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>39142</v>
       </c>
@@ -5656,7 +5657,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39173</v>
       </c>
@@ -5676,7 +5677,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>39203</v>
       </c>
@@ -5696,7 +5697,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>39234</v>
       </c>
@@ -5716,7 +5717,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39264</v>
       </c>
@@ -5736,7 +5737,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>39295</v>
       </c>
@@ -5756,7 +5757,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>39326</v>
       </c>
@@ -5776,7 +5777,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>39356</v>
       </c>
@@ -5796,7 +5797,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>39387</v>
       </c>
@@ -5816,7 +5817,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>39417</v>
       </c>
@@ -5840,7 +5841,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>74</v>
       </c>
@@ -5862,7 +5863,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>39448</v>
       </c>
@@ -5882,7 +5883,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>39479</v>
       </c>
@@ -5902,7 +5903,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>39508</v>
       </c>
@@ -5926,7 +5927,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>39539</v>
       </c>
@@ -5946,7 +5947,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39569</v>
       </c>
@@ -5966,7 +5967,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39600</v>
       </c>
@@ -5986,7 +5987,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>39630</v>
       </c>
@@ -6006,7 +6007,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39661</v>
       </c>
@@ -6026,7 +6027,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39692</v>
       </c>
@@ -6046,7 +6047,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>39722</v>
       </c>
@@ -6066,7 +6067,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>39753</v>
       </c>
@@ -6086,7 +6087,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>39783</v>
       </c>
@@ -6110,7 +6111,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>70</v>
       </c>
@@ -6132,7 +6133,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>39814</v>
       </c>
@@ -6152,7 +6153,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39845</v>
       </c>
@@ -6172,7 +6173,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39873</v>
       </c>
@@ -6192,7 +6193,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>39904</v>
       </c>
@@ -6212,7 +6213,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>39934</v>
       </c>
@@ -6232,7 +6233,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>39965</v>
       </c>
@@ -6252,7 +6253,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>39995</v>
       </c>
@@ -6272,7 +6273,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>40026</v>
       </c>
@@ -6292,7 +6293,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>40057</v>
       </c>
@@ -6312,7 +6313,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>40087</v>
       </c>
@@ -6332,7 +6333,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>40118</v>
       </c>
@@ -6352,7 +6353,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>40148</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>71</v>
@@ -6400,7 +6401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="48" t="s">
         <v>69</v>
       </c>
@@ -6422,7 +6423,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>40179</v>
       </c>
@@ -6442,7 +6443,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>40210</v>
       </c>
@@ -6462,7 +6463,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>40238</v>
       </c>
@@ -6482,7 +6483,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>40269</v>
       </c>
@@ -6502,7 +6503,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40299</v>
       </c>
@@ -6522,7 +6523,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>40330</v>
       </c>
@@ -6542,7 +6543,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>40360</v>
       </c>
@@ -6562,7 +6563,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>40391</v>
       </c>
@@ -6582,7 +6583,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>40422</v>
       </c>
@@ -6602,7 +6603,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>40452</v>
       </c>
@@ -6622,7 +6623,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40483</v>
       </c>
@@ -6642,7 +6643,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>40513</v>
       </c>
@@ -6666,7 +6667,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="48" t="s">
         <v>65</v>
       </c>
@@ -6688,7 +6689,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>40544</v>
       </c>
@@ -6708,7 +6709,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>40575</v>
       </c>
@@ -6728,7 +6729,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>40603</v>
       </c>
@@ -6748,7 +6749,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40634</v>
       </c>
@@ -6768,7 +6769,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>40664</v>
       </c>
@@ -6788,7 +6789,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40695</v>
       </c>
@@ -6808,7 +6809,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>40725</v>
       </c>
@@ -6828,7 +6829,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40756</v>
       </c>
@@ -6848,7 +6849,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40787</v>
       </c>
@@ -6868,7 +6869,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40817</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40848</v>
       </c>
@@ -6914,7 +6915,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>40878</v>
       </c>
@@ -6938,7 +6939,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="48" t="s">
         <v>64</v>
       </c>
@@ -6960,7 +6961,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>40909</v>
       </c>
@@ -6980,7 +6981,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>40940</v>
       </c>
@@ -7000,7 +7001,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40969</v>
       </c>
@@ -7020,7 +7021,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>41000</v>
       </c>
@@ -7040,7 +7041,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>41030</v>
       </c>
@@ -7060,7 +7061,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>41061</v>
       </c>
@@ -7080,7 +7081,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>41091</v>
       </c>
@@ -7100,7 +7101,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>41122</v>
       </c>
@@ -7120,7 +7121,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>41153</v>
       </c>
@@ -7140,7 +7141,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>41183</v>
       </c>
@@ -7160,7 +7161,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>41214</v>
       </c>
@@ -7180,7 +7181,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>41244</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="48" t="s">
         <v>59</v>
       </c>
@@ -7228,7 +7229,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>41275</v>
       </c>
@@ -7248,7 +7249,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>41306</v>
       </c>
@@ -7268,7 +7269,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>41334</v>
       </c>
@@ -7288,7 +7289,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>41365</v>
       </c>
@@ -7308,7 +7309,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>41395</v>
       </c>
@@ -7328,7 +7329,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>41426</v>
       </c>
@@ -7348,7 +7349,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>41456</v>
       </c>
@@ -7368,7 +7369,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>41487</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>41518</v>
       </c>
@@ -7414,7 +7415,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>41548</v>
       </c>
@@ -7434,7 +7435,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41579</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>41609</v>
       </c>
@@ -7480,7 +7481,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="48" t="s">
         <v>58</v>
       </c>
@@ -7502,7 +7503,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>41640</v>
       </c>
@@ -7522,7 +7523,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>41671</v>
       </c>
@@ -7542,7 +7543,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>41699</v>
       </c>
@@ -7562,7 +7563,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>41730</v>
       </c>
@@ -7582,7 +7583,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41760</v>
       </c>
@@ -7602,7 +7603,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>41791</v>
       </c>
@@ -7622,7 +7623,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>41821</v>
       </c>
@@ -7642,7 +7643,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>41852</v>
       </c>
@@ -7662,7 +7663,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>41883</v>
       </c>
@@ -7682,7 +7683,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>41913</v>
       </c>
@@ -7702,7 +7703,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41944</v>
       </c>
@@ -7722,7 +7723,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>41974</v>
       </c>
@@ -7746,7 +7747,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="48" t="s">
         <v>57</v>
       </c>
@@ -7768,7 +7769,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>42005</v>
       </c>
@@ -7788,7 +7789,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>42036</v>
       </c>
@@ -7808,7 +7809,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>42064</v>
       </c>
@@ -7828,7 +7829,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>42095</v>
       </c>
@@ -7848,7 +7849,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>42125</v>
       </c>
@@ -7868,7 +7869,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42156</v>
       </c>
@@ -7888,7 +7889,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>42186</v>
       </c>
@@ -7908,7 +7909,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>42217</v>
       </c>
@@ -7928,7 +7929,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>42248</v>
       </c>
@@ -7948,7 +7949,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>42278</v>
       </c>
@@ -7968,7 +7969,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>42309</v>
       </c>
@@ -7988,7 +7989,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>42339</v>
       </c>
@@ -8012,7 +8013,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>56</v>
       </c>
@@ -8034,7 +8035,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>42370</v>
       </c>
@@ -8054,7 +8055,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>42401</v>
       </c>
@@ -8074,7 +8075,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>42430</v>
       </c>
@@ -8094,7 +8095,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>42461</v>
       </c>
@@ -8114,7 +8115,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>42491</v>
       </c>
@@ -8134,7 +8135,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42522</v>
       </c>
@@ -8154,7 +8155,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>42552</v>
       </c>
@@ -8174,7 +8175,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>42583</v>
       </c>
@@ -8194,7 +8195,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>42614</v>
       </c>
@@ -8214,7 +8215,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>42644</v>
       </c>
@@ -8234,7 +8235,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>42675</v>
       </c>
@@ -8254,7 +8255,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>42705</v>
       </c>
@@ -8278,7 +8279,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="48" t="s">
         <v>55</v>
       </c>
@@ -8300,7 +8301,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>42736</v>
       </c>
@@ -8320,7 +8321,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>42767</v>
       </c>
@@ -8340,7 +8341,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>42795</v>
       </c>
@@ -8360,7 +8361,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>42826</v>
       </c>
@@ -8380,7 +8381,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>42856</v>
       </c>
@@ -8400,7 +8401,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>42887</v>
       </c>
@@ -8420,7 +8421,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>42917</v>
       </c>
@@ -8440,7 +8441,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>42948</v>
       </c>
@@ -8460,7 +8461,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42979</v>
       </c>
@@ -8480,7 +8481,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>43009</v>
       </c>
@@ -8500,7 +8501,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>43040</v>
       </c>
@@ -8520,7 +8521,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>43070</v>
       </c>
@@ -8544,7 +8545,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>50</v>
       </c>
@@ -8566,7 +8567,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>43101</v>
       </c>
@@ -8586,7 +8587,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>43132</v>
       </c>
@@ -8606,7 +8607,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>43160</v>
       </c>
@@ -8626,7 +8627,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>43191</v>
       </c>
@@ -8646,7 +8647,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>43221</v>
       </c>
@@ -8666,7 +8667,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>43252</v>
       </c>
@@ -8686,7 +8687,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>43282</v>
       </c>
@@ -8706,7 +8707,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>43313</v>
       </c>
@@ -8726,7 +8727,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>43344</v>
       </c>
@@ -8746,7 +8747,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>43374</v>
       </c>
@@ -8766,7 +8767,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>43405</v>
       </c>
@@ -8790,7 +8791,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>43435</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
         <v>49</v>
       </c>
@@ -8834,7 +8835,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>43466</v>
       </c>
@@ -8854,7 +8855,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>43497</v>
       </c>
@@ -8874,7 +8875,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>43525</v>
       </c>
@@ -8894,7 +8895,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>43556</v>
       </c>
@@ -8914,7 +8915,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>43586</v>
       </c>
@@ -8934,7 +8935,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>43617</v>
       </c>
@@ -8954,7 +8955,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>43647</v>
       </c>
@@ -8974,7 +8975,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>43678</v>
       </c>
@@ -8994,7 +8995,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>43709</v>
       </c>
@@ -9014,7 +9015,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>43739</v>
       </c>
@@ -9034,7 +9035,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>43770</v>
       </c>
@@ -9054,7 +9055,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>43800</v>
       </c>
@@ -9078,7 +9079,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="48" t="s">
         <v>48</v>
       </c>
@@ -9100,7 +9101,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>43831</v>
       </c>
@@ -9120,7 +9121,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>43862</v>
       </c>
@@ -9140,7 +9141,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>43891</v>
       </c>
@@ -9160,7 +9161,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>43922</v>
       </c>
@@ -9180,7 +9181,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>43952</v>
       </c>
@@ -9200,7 +9201,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43983</v>
       </c>
@@ -9220,7 +9221,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>44013</v>
       </c>
@@ -9240,7 +9241,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>44044</v>
       </c>
@@ -9260,7 +9261,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>44075</v>
       </c>
@@ -9280,7 +9281,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>44105</v>
       </c>
@@ -9300,7 +9301,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>44136</v>
       </c>
@@ -9320,7 +9321,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>44166</v>
       </c>
@@ -9344,7 +9345,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="48" t="s">
         <v>47</v>
       </c>
@@ -9366,7 +9367,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>44197</v>
       </c>
@@ -9386,7 +9387,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>44228</v>
       </c>
@@ -9406,7 +9407,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>44256</v>
       </c>
@@ -9426,7 +9427,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>44287</v>
       </c>
@@ -9446,7 +9447,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>44317</v>
       </c>
@@ -9466,7 +9467,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>44348</v>
       </c>
@@ -9486,7 +9487,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44378</v>
       </c>
@@ -9506,7 +9507,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>44409</v>
       </c>
@@ -9526,7 +9527,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>44440</v>
       </c>
@@ -9546,7 +9547,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>44470</v>
       </c>
@@ -9566,7 +9567,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>44501</v>
       </c>
@@ -9586,7 +9587,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>44531</v>
       </c>
@@ -9612,7 +9613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>80</v>
@@ -9632,7 +9633,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="48" t="s">
         <v>90</v>
       </c>
@@ -9650,7 +9651,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>44562</v>
       </c>
@@ -9670,7 +9671,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>44593</v>
       </c>
@@ -9690,7 +9691,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>44621</v>
       </c>
@@ -9710,7 +9711,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>44652</v>
       </c>
@@ -9730,7 +9731,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>44682</v>
       </c>
@@ -9750,7 +9751,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>44713</v>
       </c>
@@ -9770,7 +9771,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>44743</v>
       </c>
@@ -9790,7 +9791,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>44774</v>
       </c>
@@ -9810,7 +9811,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>44805</v>
       </c>
@@ -9830,7 +9831,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>44835</v>
       </c>
@@ -9850,7 +9851,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>44866</v>
       </c>
@@ -9870,7 +9871,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>44896</v>
       </c>
@@ -9894,7 +9895,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="48" t="s">
         <v>91</v>
       </c>
@@ -9912,9 +9913,9 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -9932,9 +9933,9 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13">
@@ -9952,9 +9953,9 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13">
@@ -9972,9 +9973,9 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13">
@@ -9992,9 +9993,9 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -10012,9 +10013,9 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
@@ -10032,9 +10033,9 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -10052,10 +10053,8 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="40">
-        <v>45139</v>
-      </c>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="40"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
@@ -10070,7 +10069,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -10086,7 +10085,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -10102,7 +10101,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -10118,7 +10117,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -10134,7 +10133,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -10150,7 +10149,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -10166,7 +10165,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -10182,7 +10181,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10198,7 +10197,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -10214,7 +10213,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -10230,7 +10229,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -10246,7 +10245,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -10262,7 +10261,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -10278,7 +10277,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -10294,7 +10293,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -10310,7 +10309,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -10326,7 +10325,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10342,7 +10341,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10358,7 +10357,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10374,7 +10373,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -10390,7 +10389,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -10406,7 +10405,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10422,7 +10421,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10438,7 +10437,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10454,7 +10453,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10470,7 +10469,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10486,7 +10485,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10502,7 +10501,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10518,7 +10517,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10534,7 +10533,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10550,7 +10549,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10566,7 +10565,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10582,7 +10581,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10598,7 +10597,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10614,7 +10613,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10630,7 +10629,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10646,7 +10645,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10662,7 +10661,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10678,7 +10677,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10694,7 +10693,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10710,7 +10709,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10726,7 +10725,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10742,7 +10741,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10758,7 +10757,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10774,7 +10773,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10790,7 +10789,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10806,7 +10805,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10822,7 +10821,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10838,7 +10837,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10854,7 +10853,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10870,7 +10869,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10886,7 +10885,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10902,7 +10901,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10918,7 +10917,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10934,7 +10933,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10950,7 +10949,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10966,7 +10965,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10982,7 +10981,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10998,7 +10997,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11014,7 +11013,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11030,7 +11029,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -11046,7 +11045,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -11062,7 +11061,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -11078,7 +11077,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11094,7 +11093,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11110,7 +11109,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11126,7 +11125,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11142,7 +11141,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11158,7 +11157,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11174,7 +11173,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11190,7 +11189,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -11206,7 +11205,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -11222,7 +11221,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11238,7 +11237,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11254,7 +11253,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11270,7 +11269,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11286,7 +11285,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11302,7 +11301,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11318,7 +11317,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11334,7 +11333,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11350,7 +11349,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11366,7 +11365,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11382,7 +11381,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11398,7 +11397,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11414,7 +11413,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11430,7 +11429,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11446,7 +11445,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11462,7 +11461,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11478,7 +11477,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11494,7 +11493,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11510,7 +11509,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11526,7 +11525,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11542,7 +11541,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11558,7 +11557,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11574,7 +11573,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11590,7 +11589,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11606,7 +11605,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11622,7 +11621,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11638,7 +11637,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11654,7 +11653,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11670,7 +11669,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11686,7 +11685,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11702,7 +11701,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11718,7 +11717,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11734,7 +11733,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11750,7 +11749,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11766,7 +11765,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11782,7 +11781,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11798,7 +11797,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11814,7 +11813,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11830,7 +11829,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11846,7 +11845,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11862,7 +11861,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11878,7 +11877,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11894,7 +11893,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11910,7 +11909,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11926,7 +11925,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11942,7 +11941,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11958,7 +11957,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11974,7 +11973,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11990,7 +11989,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -12006,7 +12005,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -12022,7 +12021,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -12038,7 +12037,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12054,7 +12053,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12070,7 +12069,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12086,7 +12085,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12102,7 +12101,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12118,7 +12117,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12134,7 +12133,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12150,7 +12149,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12166,7 +12165,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12182,7 +12181,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12198,7 +12197,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12214,7 +12213,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12230,7 +12229,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12246,7 +12245,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12262,7 +12261,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12278,7 +12277,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12294,7 +12293,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12310,7 +12309,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12326,7 +12325,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12342,7 +12341,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12358,7 +12357,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12374,7 +12373,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12390,7 +12389,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12406,7 +12405,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12422,7 +12421,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12438,7 +12437,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12454,7 +12453,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12470,7 +12469,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12486,7 +12485,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12502,7 +12501,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12518,7 +12517,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12534,7 +12533,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12550,7 +12549,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12566,7 +12565,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12582,7 +12581,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12598,7 +12597,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12614,7 +12613,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12630,7 +12629,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -12646,7 +12645,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -12662,7 +12661,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -12678,7 +12677,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -12694,7 +12693,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -12710,7 +12709,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -12726,7 +12725,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -12742,7 +12741,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -12758,7 +12757,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -12774,7 +12773,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -12790,7 +12789,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -12806,7 +12805,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -12822,7 +12821,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -12838,7 +12837,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -12854,7 +12853,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12870,7 +12869,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12886,7 +12885,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -12902,7 +12901,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -12918,7 +12917,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -12934,7 +12933,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -12950,7 +12949,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -12966,7 +12965,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -12982,7 +12981,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -12998,7 +12997,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13014,7 +13013,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13030,7 +13029,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13046,7 +13045,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13062,7 +13061,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13078,7 +13077,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13094,7 +13093,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13110,7 +13109,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13126,7 +13125,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13142,7 +13141,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13158,7 +13157,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13174,7 +13173,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13190,7 +13189,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13206,7 +13205,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13222,7 +13221,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13238,7 +13237,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13254,7 +13253,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13270,7 +13269,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13286,7 +13285,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13302,7 +13301,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13318,7 +13317,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13334,7 +13333,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13350,7 +13349,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13366,7 +13365,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13382,7 +13381,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13398,7 +13397,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13414,7 +13413,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="41"/>
       <c r="B549" s="15"/>
       <c r="C549" s="42"/>
@@ -13445,10 +13444,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13471,7 +13470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -13479,21 +13478,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -13506,7 +13505,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -13557,17 +13556,17 @@
         <v>0.2919999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
@@ -13591,7 +13590,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
         <v>612.58400000000006</v>
@@ -13622,7 +13621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13674,7 +13673,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13700,7 +13699,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13726,7 +13725,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13778,7 +13777,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13824,7 +13823,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13844,7 +13843,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13864,7 +13863,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14011,7 +14010,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14032,7 +14031,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14053,7 +14052,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14116,7 +14115,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14137,7 +14136,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14158,7 +14157,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14179,7 +14178,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14221,7 +14220,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14242,7 +14241,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14263,7 +14262,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14293,7 +14292,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14302,7 +14301,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14311,7 +14310,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14320,7 +14319,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14329,7 +14328,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14338,7 +14337,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14347,7 +14346,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14356,7 +14355,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14365,7 +14364,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14374,7 +14373,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14383,7 +14382,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14392,7 +14391,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14401,7 +14400,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14410,7 +14409,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14419,7 +14418,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14428,7 +14427,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14437,7 +14436,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14446,7 +14445,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14455,7 +14454,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14464,7 +14463,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14473,7 +14472,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14482,7 +14481,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14491,7 +14490,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14500,7 +14499,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14509,7 +14508,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14518,7 +14517,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14527,7 +14526,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14536,7 +14535,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14545,7 +14544,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
